--- a/src/test/java/testcase/futures/testFutureData.xlsx
+++ b/src/test/java/testcase/futures/testFutureData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="14180" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>name</t>
   </si>
@@ -41,6 +41,78 @@
   </si>
   <si>
     <t>Ethereum Perpetual Futures</t>
+  </si>
+  <si>
+    <t>ADA-PERP</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>Cardano Perpetual Futures</t>
+  </si>
+  <si>
+    <t>FTM-PERP</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>Fantom Perpetual Futures</t>
+  </si>
+  <si>
+    <t>DOT-PERP</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>Polkadot Perpetual Futures</t>
+  </si>
+  <si>
+    <t>DOGE-PERP</t>
+  </si>
+  <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>Dogecoin Perpetual Futures</t>
+  </si>
+  <si>
+    <t>SOL-PERP</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>Solana Perpetual Futures</t>
+  </si>
+  <si>
+    <t>LINK-PERP</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Chainlink Perpetual Futures</t>
+  </si>
+  <si>
+    <t>BNB-PERP</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>BNB Perpetual Futures</t>
+  </si>
+  <si>
+    <t>SAND-PERP</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>SAND Perpetual Futures</t>
   </si>
 </sst>
 </file>
@@ -48,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +134,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -69,6 +157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -77,31 +180,53 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,92 +240,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,79 +287,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,103 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,15 +478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,6 +505,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -457,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,165 +578,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="9.6875" customWidth="1"/>
@@ -1025,6 +1097,94 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
